--- a/BILL TECHGUARD.xlsx
+++ b/BILL TECHGUARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html works\payment page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D166EE-825D-420B-944B-98D2A202224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F0204-6B5B-4191-B7C6-AE658F219AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DC56751F-2158-4E0C-96FE-7D6B806B5844}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TechGuard Vision</t>
   </si>
@@ -105,7 +105,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -115,7 +115,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -129,7 +129,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -139,7 +139,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -153,7 +153,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -163,7 +163,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -177,7 +177,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -187,7 +187,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -197,6 +197,18 @@
     refundable.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Payment details </t>
+  </si>
+  <si>
+    <t>Name : K K Muhammed Rameez</t>
+  </si>
+  <si>
+    <t>Acc num : 99980110826315</t>
+  </si>
+  <si>
+    <t>IFSC CODE : FDRL0001102</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +274,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -400,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -411,18 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -451,6 +466,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,6 +492,44 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -473,6 +541,113 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -508,151 +683,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -774,11 +804,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18448C51-9A2C-43B4-8BEA-AF3FC61F64E2}" name="Table1" displayName="Table1" ref="B12:D27" totalsRowCount="1" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18448C51-9A2C-43B4-8BEA-AF3FC61F64E2}" name="Table1" displayName="Table1" ref="B12:D27" totalsRowCount="1" headerRowDxfId="10" totalsRowDxfId="7" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{794A7C44-9C67-43D4-BE6E-DAC26A01BDBB}" name="Sl no." dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E01E8FD7-D02F-4B38-A136-52B95A4346C3}" name="Items" totalsRowLabel="Sub Total" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{BFF82128-5493-4281-989D-8C0A6212CC3D}" name="Total" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{794A7C44-9C67-43D4-BE6E-DAC26A01BDBB}" name="Sl no." dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E01E8FD7-D02F-4B38-A136-52B95A4346C3}" name="Items" totalsRowLabel="Sub Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BFF82128-5493-4281-989D-8C0A6212CC3D}" name="Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>#REF!*#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1105,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C79B3AE-9EAF-4D91-B1A6-1E26E23965B7}">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1139,17 +1169,17 @@
     </row>
     <row r="5" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>46038</v>
       </c>
     </row>
@@ -1175,163 +1205,163 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>1500</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>4</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>5</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="e">
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15" t="e">
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="e">
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15" t="e">
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>12</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15" t="e">
+      <c r="C22" s="12"/>
+      <c r="D22" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>13</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15" t="e">
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>14</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15" t="e">
+      <c r="C24" s="12"/>
+      <c r="D24" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15" t="e">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15" t="e">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="15">
         <f>SUBTOTAL(109,Table1[Total])</f>
         <v>6000</v>
       </c>
@@ -1339,34 +1369,54 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="8" t="s">
+    <row r="30" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="8" t="s">
+    <row r="31" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="8" t="s">
+    <row r="32" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="20" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
